--- a/ig/sd-modification-extension-eclairelabel-to-R5/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/sd-modification-extension-eclairelabel-to-R5/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-27T16:41:15+00:00</t>
+    <t>2023-10-27T17:23:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -418,20 +418,20 @@
     <t>Extension créée dans le cadre du projet API ECLAIRE afin de pouvoir renseigner le(s) promoteur(s) secondaire(s)</t>
   </si>
   <si>
-    <t>ResearchStudy.extension:eclaire-label</t>
-  </si>
-  <si>
-    <t>eclaire-label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/eclaire/StructureDefinition/eclaire-label}
+    <t>ResearchStudy.extension:eclaire-label-r5</t>
+  </si>
+  <si>
+    <t>eclaire-label-r5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchStudy.label}
 </t>
   </si>
   <si>
     <t>autres titres et acronyme / Additional names for the study</t>
   </si>
   <si>
-    <t>Extension créée dans le cadre du projet API ECLAIRE afin de permettre l'ajout de plusieurs titres pour l'essai</t>
+    <t>Cette extension implemente l'élément label de R5. elle permet l'ajout de plusieurs titres pour l'essai</t>
   </si>
   <si>
     <t>ResearchStudy.modifierExtension</t>
@@ -3609,7 +3609,7 @@
         <v>39</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>39</v>

--- a/ig/sd-modification-extension-eclairelabel-to-R5/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/sd-modification-extension-eclairelabel-to-R5/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-27T17:23:19+00:00</t>
+    <t>2023-10-30T11:13:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-modification-extension-eclairelabel-to-R5/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/sd-modification-extension-eclairelabel-to-R5/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-30T11:13:09+00:00</t>
+    <t>2023-10-31T16:48:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3609,7 +3609,7 @@
         <v>39</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>39</v>

--- a/ig/sd-modification-extension-eclairelabel-to-R5/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/sd-modification-extension-eclairelabel-to-R5/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-31T16:48:54+00:00</t>
+    <t>2023-10-31T17:02:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-modification-extension-eclairelabel-to-R5/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/sd-modification-extension-eclairelabel-to-R5/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-31T17:02:35+00:00</t>
+    <t>2023-10-31T17:23:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -428,7 +428,7 @@
 </t>
   </si>
   <si>
-    <t>autres titres et acronyme / Additional names for the study</t>
+    <t xml:space="preserve">autres titres et acronyme / Additional names for the study. Implémentation de lélément label de R5 </t>
   </si>
   <si>
     <t>Cette extension implemente l'élément label de R5. elle permet l'ajout de plusieurs titres pour l'essai</t>

--- a/ig/sd-modification-extension-eclairelabel-to-R5/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/sd-modification-extension-eclairelabel-to-R5/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-31T17:23:44+00:00</t>
+    <t>2023-10-31T17:39:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-modification-extension-eclairelabel-to-R5/StructureDefinition-eclaire-researchstudy.xlsx
+++ b/ig/sd-modification-extension-eclairelabel-to-R5/StructureDefinition-eclaire-researchstudy.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-31T17:39:37+00:00</t>
+    <t>2023-10-31T17:40:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -428,7 +428,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">autres titres et acronyme / Additional names for the study. Implémentation de lélément label de R5 </t>
+    <t>autres titres et acronyme / Additional names for the study. Implémentation de l'élément label de R5</t>
   </si>
   <si>
     <t>Cette extension implemente l'élément label de R5. elle permet l'ajout de plusieurs titres pour l'essai</t>
@@ -954,8 +954,8 @@
     <t>http://hl7.org/fhir/ValueSet/condition-code</t>
   </si>
   <si>
-    <t xml:space="preserve">Slicing pour apporter des précisions sur le sujet / Health Condition(s) or Problem(s) Studied. Dans le CTIS, il y a un champ texte ouvert (obligatoire) pour indiquer la pathologie et éventuellement des précisons. Un code MedDRA peut-être ajouté mais il est optionnel.
-Ainsi la slice medDRACondition contient un code meddra, la slice diseaseCondition contient un texte libre. </t>
+    <t>Slicing pour apporter des précisions sur le sujet / Health Condition(s) or Problem(s) Studied. Dans le CTIS, il y a un champ texte ouvert (obligatoire) pour indiquer la pathologie et éventuellement des précisons. Un code MedDRA peut-être ajouté mais il est optionnel.
+Ainsi la slice medDRACondition contient un code meddra, la slice diseaseCondition contient un texte libre.</t>
   </si>
   <si>
     <t>StudyCondition.code</t>
